--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>304895.2212741802</v>
+        <v>302638.1993650969</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836238</v>
+        <v>6654055.582836233</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>223.0120411822531</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>121.0633651463834</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26.71728140711189</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>234.2559520454605</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>246.795623832921</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>134.297674614361</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>55.04515004530744</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>169.0167291702124</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1148,10 +1148,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>149.6058004679898</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>96.95377689311738</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.48793456562291</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>54.70678535262241</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292615</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851117</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247292</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734111903</v>
+        <v>0.1429098734100194</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>121.9600124226106</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>69.60662835550414</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1622,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873206</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292629</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851119</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868246976</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734101331</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>74.75769145491968</v>
       </c>
       <c r="C16" t="n">
-        <v>118.0932809216405</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004751</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292596</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247882</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492441</v>
       </c>
       <c r="C19" t="n">
-        <v>62.1450161723026</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2056,10 +2056,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>54.26003672910126</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>126.0955237083904</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247882</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>144.7268717888068</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>90.41948680756481</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2570,7 +2570,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873206</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,10 +2719,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>140.5010290442966</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>209.567519332071</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>143.157570894838</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3010,13 +3010,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>253.3918288809852</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8.348269799534391</v>
+        <v>133.2205257453327</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3269,10 +3269,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3421,16 +3421,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>178.7757248935319</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>91.4896202275003</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5897927156055687</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>87.87589738164165</v>
       </c>
       <c r="S37" t="n">
-        <v>188.7127700430365</v>
+        <v>188.7127700430362</v>
       </c>
       <c r="T37" t="n">
-        <v>218.4926939877638</v>
+        <v>218.4926939877635</v>
       </c>
       <c r="U37" t="n">
-        <v>285.1555829172075</v>
+        <v>285.1555829172072</v>
       </c>
       <c r="V37" t="n">
-        <v>251.0813880354226</v>
+        <v>251.0813880354223</v>
       </c>
       <c r="W37" t="n">
-        <v>285.4667430481856</v>
+        <v>285.4667430481853</v>
       </c>
       <c r="X37" t="n">
-        <v>224.6534001006318</v>
+        <v>224.6534001006315</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.5283980636894</v>
+        <v>217.5283980636891</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3667,16 +3667,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433909</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I40" t="n">
         <v>49.37728379124552</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145475</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3794,7 +3794,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572852</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797658</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1957.780595683986</v>
+        <v>601.1385180919704</v>
       </c>
       <c r="C2" t="n">
-        <v>1588.818078743575</v>
+        <v>601.1385180919704</v>
       </c>
       <c r="D2" t="n">
-        <v>1588.818078743575</v>
+        <v>601.1385180919704</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>601.1385180919704</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>594.1930173427669</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>176.2292092409538</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>176.2292092409538</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>2344.380435748108</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X2" t="n">
-        <v>2344.380435748108</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y2" t="n">
-        <v>2344.380435748108</v>
+        <v>601.1385180919704</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4419,19 +4419,19 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>470.7225141620388</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>249.9299350185087</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1405.321187657107</v>
+        <v>847.8148076117927</v>
       </c>
       <c r="C5" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2267.209817970484</v>
+        <v>1998.019737912806</v>
       </c>
       <c r="W5" t="n">
-        <v>1914.44116270037</v>
+        <v>1998.019737912806</v>
       </c>
       <c r="X5" t="n">
-        <v>1540.97540443929</v>
+        <v>1624.553979651726</v>
       </c>
       <c r="Y5" t="n">
-        <v>1405.321187657107</v>
+        <v>1234.414647675914</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4650,37 +4650,37 @@
         <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782189</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782189</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>428.8224802162921</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="V7" t="n">
-        <v>428.8224802162921</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>428.8224802162921</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2149.375138862102</v>
+        <v>1778.063616086466</v>
       </c>
       <c r="C8" t="n">
-        <v>1780.41262192169</v>
+        <v>1778.063616086466</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>1419.797917479716</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>1034.009664881472</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>623.0237600918642</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>205.0599519900511</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>2149.375138862102</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W8" t="n">
-        <v>2149.375138862102</v>
+        <v>2168.202948062278</v>
       </c>
       <c r="X8" t="n">
-        <v>2149.375138862102</v>
+        <v>2168.202948062278</v>
       </c>
       <c r="Y8" t="n">
-        <v>2149.375138862102</v>
+        <v>1778.063616086466</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4890,7 +4890,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>676.1209694936838</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C10" t="n">
-        <v>507.1847865657769</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D10" t="n">
-        <v>507.1847865657769</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089259</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277731</v>
+        <v>451.8458144277724</v>
       </c>
       <c r="K11" t="n">
-        <v>785.6651881176198</v>
+        <v>1106.569146563071</v>
       </c>
       <c r="L11" t="n">
-        <v>1236.699401366029</v>
+        <v>1557.603359811479</v>
       </c>
       <c r="M11" t="n">
-        <v>2215.249704195858</v>
+        <v>2091.135264483402</v>
       </c>
       <c r="N11" t="n">
-        <v>3195.001976422504</v>
+        <v>2667.236715577533</v>
       </c>
       <c r="O11" t="n">
-        <v>3697.974447301842</v>
+        <v>3547.201365906987</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353932</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973151</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161881</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549368</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494813</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763663</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089844</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468519</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193582</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320229</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.476988454338</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008792</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426846</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902948</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549554</v>
+        <v>2594.102460549548</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142063</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635543</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313399</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447814</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216071</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.41990848787</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282337</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517383</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.8112129900696</v>
+        <v>411.3871648742116</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8112129900696</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D13" t="n">
-        <v>631.6945735777339</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E13" t="n">
-        <v>483.7814799953408</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F13" t="n">
-        <v>483.7814799953408</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>316.0786433700598</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953297</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442057</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927029</v>
+        <v>661.2306482927015</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.38769389225</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598115</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518528</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.73316995219</v>
+        <v>1878.733169952186</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104701</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104701</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.657581931527</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501053</v>
       </c>
       <c r="U13" t="n">
-        <v>1956.343466104704</v>
+        <v>1253.788099626697</v>
       </c>
       <c r="V13" t="n">
-        <v>1701.658977898818</v>
+        <v>999.10361142081</v>
       </c>
       <c r="W13" t="n">
-        <v>1412.241807861857</v>
+        <v>709.6864413838493</v>
       </c>
       <c r="X13" t="n">
-        <v>1184.252256963839</v>
+        <v>481.696890485832</v>
       </c>
       <c r="Y13" t="n">
-        <v>963.4596778203094</v>
+        <v>411.3871648742116</v>
       </c>
     </row>
     <row r="14">
@@ -5264,37 +5264,37 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551623</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001588</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>284.4401654074192</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427194</v>
+        <v>939.1634975427176</v>
       </c>
       <c r="L14" t="n">
-        <v>1803.682313196074</v>
+        <v>1390.197710791125</v>
       </c>
       <c r="M14" t="n">
-        <v>2337.214217867999</v>
+        <v>1923.729615463048</v>
       </c>
       <c r="N14" t="n">
-        <v>3316.966490094645</v>
+        <v>2903.481887689692</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3783.446538019146</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353932</v>
       </c>
       <c r="Q14" t="n">
         <v>4719.034655862919</v>
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973119</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161849</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549336</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494781</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763631</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089812</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468487</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390113</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193577</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232022</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454337</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.00003200879</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426844</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902946</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549545</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.95810714206</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.52022063554</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313395</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447811</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216068</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487867</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282334</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.80810951738</v>
       </c>
     </row>
     <row r="16">
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>680.5797464134957</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>561.2936040684043</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>411.1769646560686</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5434,52 +5434,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953296</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442055</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927011</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.38769389225</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598114</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.125669518526</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952185</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104699</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862227</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689054</v>
       </c>
       <c r="T16" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.06050925858</v>
       </c>
       <c r="U16" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384223</v>
       </c>
       <c r="V16" t="n">
-        <v>1190.789495593986</v>
+        <v>909.2731541783364</v>
       </c>
       <c r="W16" t="n">
-        <v>901.3723255570259</v>
+        <v>619.8559841413759</v>
       </c>
       <c r="X16" t="n">
-        <v>901.3723255570259</v>
+        <v>391.8664332433585</v>
       </c>
       <c r="Y16" t="n">
-        <v>680.5797464134957</v>
+        <v>171.0738540998285</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277731</v>
       </c>
       <c r="K17" t="n">
-        <v>785.6651881176194</v>
+        <v>785.6651881176198</v>
       </c>
       <c r="L17" t="n">
-        <v>1236.699401366028</v>
+        <v>1236.699401366029</v>
       </c>
       <c r="M17" t="n">
-        <v>2215.249704195857</v>
+        <v>2215.249704195858</v>
       </c>
       <c r="N17" t="n">
-        <v>2762.028521254639</v>
+        <v>2762.028521254641</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3641.993171584096</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.592772497321</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216194</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549427</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494872</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763722</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089903</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468579</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5595,16 +5595,16 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O18" t="n">
         <v>2125.96131142685</v>
@@ -5613,31 +5613,31 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549554</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142069</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635549</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487876</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282343</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517389</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>623.0432015923079</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>560.2704579839215</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>410.1538185715857</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>410.1538185715857</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5674,49 +5674,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442067</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927029</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O19" t="n">
         <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.73316995219</v>
       </c>
       <c r="Q19" t="n">
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.890966501056</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1542.890966501056</v>
+        <v>909.2731541783413</v>
       </c>
       <c r="W19" t="n">
-        <v>1253.473796464095</v>
+        <v>619.8559841413806</v>
       </c>
       <c r="X19" t="n">
-        <v>1025.484245566078</v>
+        <v>391.8664332433633</v>
       </c>
       <c r="Y19" t="n">
-        <v>804.6916664225477</v>
+        <v>171.0738540998332</v>
       </c>
     </row>
     <row r="20">
@@ -5756,22 +5756,22 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2216.257005193957</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420604</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5805,64 +5805,64 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>781.8112129900691</v>
+        <v>391.8664332433624</v>
       </c>
       <c r="C22" t="n">
-        <v>612.8750300621622</v>
+        <v>222.9302503154555</v>
       </c>
       <c r="D22" t="n">
-        <v>558.066912153979</v>
+        <v>222.9302503154555</v>
       </c>
       <c r="E22" t="n">
-        <v>410.1538185715859</v>
+        <v>222.9302503154555</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5914,7 +5914,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1956.343466104704</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V22" t="n">
-        <v>1701.658977898817</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W22" t="n">
-        <v>1412.241807861856</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X22" t="n">
-        <v>1184.252256963839</v>
+        <v>391.8664332433624</v>
       </c>
       <c r="Y22" t="n">
-        <v>963.4596778203088</v>
+        <v>391.8664332433624</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>284.4401654074201</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972667</v>
       </c>
       <c r="L23" t="n">
-        <v>1237.706702364128</v>
+        <v>1069.293752345676</v>
       </c>
       <c r="M23" t="n">
-        <v>2216.257005193956</v>
+        <v>2047.844055175505</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420603</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.592772497321</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216194</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549427</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494872</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763722</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089903</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468579</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
@@ -6069,16 +6069,16 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
@@ -6087,31 +6087,31 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549554</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142069</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635549</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487876</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282343</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517389</v>
       </c>
     </row>
     <row r="25">
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>481.6968904858342</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6968904858342</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D25" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
         <v>95.56103444839442</v>
@@ -6148,49 +6148,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927028</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.73316995219</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208121</v>
+        <v>909.2731541783413</v>
       </c>
       <c r="W25" t="n">
-        <v>709.6864413838515</v>
+        <v>619.8559841413808</v>
       </c>
       <c r="X25" t="n">
-        <v>481.6968904858342</v>
+        <v>391.8664332433633</v>
       </c>
       <c r="Y25" t="n">
-        <v>481.6968904858342</v>
+        <v>391.8664332433633</v>
       </c>
     </row>
     <row r="26">
@@ -6203,52 +6203,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1586.925993846823</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M26" t="n">
-        <v>2120.457898518747</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N26" t="n">
-        <v>2667.23671557753</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O26" t="n">
-        <v>3547.201365906984</v>
+        <v>3819.938960973982</v>
       </c>
       <c r="P26" t="n">
-        <v>4260.55645335393</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
         <v>4667.761053946815</v>
@@ -6257,19 +6257,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6336,7 +6336,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>481.6968904858346</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>481.6968904858346</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>481.6968904858346</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>339.7766591279594</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.6836668953299</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6397,7 +6397,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
@@ -6421,13 +6421,13 @@
         <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>709.686441383852</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X28" t="n">
-        <v>481.6968904858346</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>481.6968904858346</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6464,16 +6464,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O29" t="n">
         <v>3482.142110232732</v>
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
@@ -6543,37 +6543,37 @@
         <v>189.238303939012</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193591</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320245</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>561.5038042865474</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C31" t="n">
-        <v>392.5676213586405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
         <v>95.56103444839442</v>
@@ -6619,16 +6619,16 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N31" t="n">
         <v>1346.796070598116</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1721.909401897749</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1500.142786467275</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1211.039919592919</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208126</v>
+        <v>956.3554313870318</v>
       </c>
       <c r="W31" t="n">
-        <v>743.1522691167871</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="X31" t="n">
-        <v>743.1522691167871</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y31" t="n">
-        <v>743.1522691167871</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>301.7164587107651</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>956.4397908460646</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1407.474004094473</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>1941.005908766398</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P32" t="n">
         <v>4195.497197679678</v>
@@ -6731,19 +6731,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
@@ -6777,13 +6777,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193587</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6795,22 +6795,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>582.3166934139181</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C34" t="n">
-        <v>413.3805104860112</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
         <v>95.56103444839442</v>
@@ -6856,13 +6856,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M34" t="n">
         <v>1005.387693892251</v>
@@ -6877,31 +6877,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
         <v>1866.513008862231</v>
       </c>
       <c r="S34" t="n">
-        <v>1866.513008862231</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1644.746393431757</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1355.643526557401</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V34" t="n">
-        <v>1100.959038351514</v>
+        <v>909.2731541783403</v>
       </c>
       <c r="W34" t="n">
-        <v>811.5418683145533</v>
+        <v>619.8559841413796</v>
       </c>
       <c r="X34" t="n">
-        <v>811.5418683145533</v>
+        <v>619.8559841413796</v>
       </c>
       <c r="Y34" t="n">
-        <v>590.7492891710232</v>
+        <v>399.0634049978496</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6935,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>1687.484443350884</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>96.15678466617783</v>
+        <v>187.9747922539502</v>
       </c>
       <c r="C37" t="n">
-        <v>96.15678466617783</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>96.15678466617783</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
         <v>95.56103444839442</v>
@@ -7093,52 +7093,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>141.7293596308513</v>
+        <v>141.7293596308515</v>
       </c>
       <c r="K37" t="n">
-        <v>346.762235315249</v>
+        <v>346.7622353152495</v>
       </c>
       <c r="L37" t="n">
-        <v>664.3677264992664</v>
+        <v>664.3677264992673</v>
       </c>
       <c r="M37" t="n">
-        <v>1009.570464834337</v>
+        <v>1009.570464834338</v>
       </c>
       <c r="N37" t="n">
-        <v>1352.024534275723</v>
+        <v>1352.024534275724</v>
       </c>
       <c r="O37" t="n">
-        <v>1652.399825931657</v>
+        <v>1652.399825931659</v>
       </c>
       <c r="P37" t="n">
-        <v>1886.053019100838</v>
+        <v>1886.05301910084</v>
       </c>
       <c r="Q37" t="n">
-        <v>1964.709007988874</v>
+        <v>1964.709007988876</v>
       </c>
       <c r="R37" t="n">
-        <v>1964.709007988874</v>
+        <v>1875.945475280148</v>
       </c>
       <c r="S37" t="n">
-        <v>1774.090048349443</v>
+        <v>1685.326515640717</v>
       </c>
       <c r="T37" t="n">
-        <v>1553.390357452712</v>
+        <v>1464.626824743986</v>
       </c>
       <c r="U37" t="n">
-        <v>1265.354415112098</v>
+        <v>1176.590882403373</v>
       </c>
       <c r="V37" t="n">
-        <v>1011.736851439954</v>
+        <v>922.9733187312289</v>
       </c>
       <c r="W37" t="n">
-        <v>723.3866059367365</v>
+        <v>634.6230732280114</v>
       </c>
       <c r="X37" t="n">
-        <v>496.4639795724619</v>
+        <v>407.7004468637372</v>
       </c>
       <c r="Y37" t="n">
-        <v>276.7383249626746</v>
+        <v>187.9747922539502</v>
       </c>
     </row>
     <row r="38">
@@ -7151,46 +7151,46 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>785.6651881176197</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1236.699401366029</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2215.249704195858</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N38" t="n">
-        <v>3195.001976422504</v>
+        <v>3082.932479700092</v>
       </c>
       <c r="O38" t="n">
-        <v>3800.7228313225</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q38" t="n">
         <v>4653.975400188666</v>
@@ -7227,31 +7227,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390116</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K39" t="n">
         <v>427.502502919359</v>
@@ -7263,28 +7263,28 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215058</v>
+        <v>788.5151678215059</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416721</v>
+        <v>667.0286178416723</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774098</v>
+        <v>564.3616113774099</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430899</v>
+        <v>463.89815074309</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932524</v>
+        <v>364.457836193253</v>
       </c>
       <c r="G40" t="n">
         <v>244.2046325160447</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7412,22 +7412,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1521.86673817257</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M41" t="n">
-        <v>2055.398642844495</v>
+        <v>1832.617028429936</v>
       </c>
       <c r="N41" t="n">
-        <v>2602.177459903277</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q41" t="n">
         <v>4653.975400188666</v>
@@ -7442,13 +7442,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7552,13 +7552,13 @@
         <v>564.3616113774093</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430897</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932527</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160447</v>
+        <v>244.204632516045</v>
       </c>
       <c r="H43" t="n">
         <v>145.4370786819758</v>
@@ -7573,7 +7573,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7597,7 +7597,7 @@
         <v>2141.769472604457</v>
       </c>
       <c r="T43" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U43" t="n">
         <v>1725.799256195774</v>
@@ -7646,28 +7646,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1840.447459262339</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2373.979363934263</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N44" t="n">
-        <v>2920.758180993045</v>
+        <v>3362.809616117416</v>
       </c>
       <c r="O44" t="n">
-        <v>3800.7228313225</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7701,64 +7701,64 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089888</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320239</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7767,10 +7767,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F46" t="n">
         <v>364.4578361932524</v>
@@ -7810,10 +7810,10 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499222</v>
       </c>
       <c r="M46" t="n">
-        <v>1191.409234901878</v>
+        <v>1191.409234901877</v>
       </c>
       <c r="N46" t="n">
         <v>1579.322996860149</v>
@@ -7828,13 +7828,13 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R46" t="n">
-        <v>2286.005723829558</v>
+        <v>2286.005723829557</v>
       </c>
       <c r="S46" t="n">
         <v>2141.769472604457</v>
       </c>
       <c r="T46" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U46" t="n">
         <v>1725.799256195774</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
   </sheetData>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8538,10 +8538,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8690,28 +8690,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>29.61882225792851</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>103.7862464855128</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>4.60786964140425e-12</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,13 +8939,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>258.621178561693</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>83.16722118950418</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.830180948076304e-12</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9176,16 +9176,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>219.3344627260163</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>226.0494095077332</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9404,25 +9404,25 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>420.2833968404722</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9641,25 +9641,25 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>170.1140909277297</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>388.4310778980879</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,25 +9872,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>29.61882225792044</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>46.30618790178829</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>17.45080131651034</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10358,13 +10358,13 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10583,22 +10583,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>85.51392558917598</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10832,16 +10832,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>103.7862464855132</v>
+        <v>107.5040408147563</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11060,16 +11060,16 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>132.9990175570123</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>232.1124963760979</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11294,22 +11294,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>285.7011105564225</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>358.284991392106</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>22.79500249171013</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983816</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004744</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>148.9780249965906</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270176</v>
       </c>
       <c r="C16" t="n">
-        <v>49.15354017698738</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983822</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>105.0742887270129</v>
       </c>
       <c r="C19" t="n">
-        <v>105.1018049263252</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>94.3554362891111</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>19.32552431454083</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>35.10510839313045</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>58.19598621064755</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24382,7 +24382,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,10 +24607,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>5.932933602272612</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24619,7 +24619,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>16.14213605696619</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>46.6114544366039</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>33.13116945560577</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>171.4837103824029</v>
+        <v>46.61145443660457</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>178.7757248935316</v>
       </c>
       <c r="C37" t="n">
-        <v>166.1905658102225</v>
+        <v>74.70094558272186</v>
       </c>
       <c r="D37" t="n">
-        <v>147.559217729807</v>
+        <v>147.5592177298067</v>
       </c>
       <c r="E37" t="n">
-        <v>144.7879146425582</v>
+        <v>145.3777073581635</v>
       </c>
       <c r="F37" t="n">
-        <v>144.3647927345259</v>
+        <v>144.3647927345256</v>
       </c>
       <c r="G37" t="n">
-        <v>164.9695529706229</v>
+        <v>164.9695529706225</v>
       </c>
       <c r="H37" t="n">
-        <v>143.6987596259154</v>
+        <v>143.6987596259151</v>
       </c>
       <c r="I37" t="n">
-        <v>95.29616512143272</v>
+        <v>95.29616512143241</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.87589738164196</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>-4.050093593832571e-13</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1069622.313640016</v>
+        <v>1069622.313640015</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1069622.313640016</v>
+        <v>1069622.313640015</v>
       </c>
     </row>
     <row r="8">
@@ -26314,46 +26314,46 @@
         <v>348942.7521923205</v>
       </c>
       <c r="C2" t="n">
+        <v>348942.7521923206</v>
+      </c>
+      <c r="D2" t="n">
         <v>348942.7521923205</v>
       </c>
-      <c r="D2" t="n">
-        <v>348942.7521923206</v>
-      </c>
       <c r="E2" t="n">
+        <v>337519.5188539357</v>
+      </c>
+      <c r="F2" t="n">
+        <v>337519.5188539356</v>
+      </c>
+      <c r="G2" t="n">
         <v>337519.5188539361</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>337519.5188539358</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>337519.5188539359</v>
       </c>
-      <c r="H2" t="n">
-        <v>337519.5188539356</v>
-      </c>
-      <c r="I2" t="n">
-        <v>337519.5188539358</v>
-      </c>
       <c r="J2" t="n">
-        <v>337519.5188539356</v>
+        <v>337519.5188539359</v>
       </c>
       <c r="K2" t="n">
-        <v>337519.5188539358</v>
+        <v>337519.5188539357</v>
       </c>
       <c r="L2" t="n">
-        <v>337519.5188539358</v>
+        <v>337519.5188539357</v>
       </c>
       <c r="M2" t="n">
         <v>337776.3749589499</v>
       </c>
       <c r="N2" t="n">
+        <v>348942.7521923205</v>
+      </c>
+      <c r="O2" t="n">
+        <v>348942.7521923202</v>
+      </c>
+      <c r="P2" t="n">
         <v>348942.7521923203</v>
-      </c>
-      <c r="O2" t="n">
-        <v>348942.7521923204</v>
-      </c>
-      <c r="P2" t="n">
-        <v>348942.7521923204</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,22 +26372,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934072</v>
+        <v>727377.4139934058</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.121360921591986e-09</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.42310613632435e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925926</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130487.3190696691</v>
+        <v>130487.3190696693</v>
       </c>
       <c r="N3" t="n">
-        <v>36735.10506414991</v>
+        <v>36735.10506414952</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231919003</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231919008</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.4923191899</v>
       </c>
       <c r="H4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="I4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918991</v>
       </c>
       <c r="J4" t="n">
         <v>18148.49231918993</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="M4" t="n">
-        <v>18496.05294811452</v>
+        <v>18496.05294811462</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.65329740898</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740902</v>
+        <v>33605.65329740901</v>
       </c>
     </row>
     <row r="5">
@@ -26476,22 +26476,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>96383.51825371363</v>
+      </c>
+      <c r="F5" t="n">
+        <v>96383.51825371361</v>
+      </c>
+      <c r="G5" t="n">
         <v>96383.51825371367</v>
-      </c>
-      <c r="F5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="G5" t="n">
-        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
+        <v>96383.51825371367</v>
+      </c>
+      <c r="J5" t="n">
         <v>96383.51825371366</v>
-      </c>
-      <c r="J5" t="n">
-        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
@@ -26500,7 +26500,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96472.31657955461</v>
+        <v>96472.31657955464</v>
       </c>
       <c r="N5" t="n">
         <v>100332.6710141021</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-507232.8919427614</v>
+        <v>-507232.8919427615</v>
       </c>
       <c r="C6" t="n">
+        <v>82734.9872717832</v>
+      </c>
+      <c r="D6" t="n">
         <v>82734.98727178312</v>
       </c>
-      <c r="D6" t="n">
-        <v>82734.98727178315</v>
-      </c>
       <c r="E6" t="n">
-        <v>-504389.9057123747</v>
+        <v>-504457.1012025995</v>
       </c>
       <c r="F6" t="n">
-        <v>222987.5082810326</v>
+        <v>222920.3127908069</v>
       </c>
       <c r="G6" t="n">
-        <v>222987.5082810323</v>
+        <v>222920.3127908046</v>
       </c>
       <c r="H6" t="n">
-        <v>222987.508281032</v>
+        <v>222920.3127908067</v>
       </c>
       <c r="I6" t="n">
-        <v>222987.5082810321</v>
+        <v>222920.3127908062</v>
       </c>
       <c r="J6" t="n">
-        <v>46564.28908843917</v>
+        <v>46497.09359821394</v>
       </c>
       <c r="K6" t="n">
-        <v>222987.5082810322</v>
+        <v>222920.3127908063</v>
       </c>
       <c r="L6" t="n">
-        <v>222987.5082810322</v>
+        <v>222920.3127908063</v>
       </c>
       <c r="M6" t="n">
-        <v>92320.68636161168</v>
+        <v>92255.00178965036</v>
       </c>
       <c r="N6" t="n">
-        <v>178269.3228166593</v>
+        <v>178269.3228166599</v>
       </c>
       <c r="O6" t="n">
-        <v>215004.4278808095</v>
+        <v>215004.4278808091</v>
       </c>
       <c r="P6" t="n">
-        <v>215004.4278808095</v>
+        <v>215004.4278808092</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405374</v>
+        <v>1.056255288405679</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,19 +26744,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>1089.776700593297</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1089.776700593296</v>
+      </c>
+      <c r="G3" t="n">
         <v>1089.776700593299</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1089.776700593298</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26771,7 +26771,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
         <v>1089.776700593298</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405374</v>
+        <v>1.056255288405679</v>
       </c>
       <c r="N2" t="n">
-        <v>45.91888133018719</v>
+        <v>45.91888133018689</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,22 +26966,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762122</v>
+        <v>712.0330363762104</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.728484105318785e-12</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-1.123627782335753e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>158.9183288900086</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>30.86795109847783</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.1146987748254</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,19 +27591,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>52.02592219651726</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,7 +27625,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>80.95663463721388</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>251.9402640416926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27828,16 +27828,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>231.2367241966703</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>83.12091415361559</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>174.3169722963674</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>230.7984815770175</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>128.3440456163144</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
         <v>45.19995918853701</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>231.8162129839686</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29989,10 +29989,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-5.115907697472721e-13</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.056255288405374</v>
+        <v>1.056255288405679</v>
       </c>
       <c r="C37" t="n">
-        <v>1.056255288405374</v>
+        <v>1.056255288405679</v>
       </c>
       <c r="D37" t="n">
-        <v>1.056255288405374</v>
+        <v>1.056255288405679</v>
       </c>
       <c r="E37" t="n">
-        <v>1.056255288405374</v>
+        <v>1.056255288405679</v>
       </c>
       <c r="F37" t="n">
-        <v>1.056255288405374</v>
+        <v>1.056255288405679</v>
       </c>
       <c r="G37" t="n">
-        <v>1.056255288405374</v>
+        <v>1.056255288405679</v>
       </c>
       <c r="H37" t="n">
-        <v>1.056255288405374</v>
+        <v>1.056255288405679</v>
       </c>
       <c r="I37" t="n">
-        <v>1.056255288405374</v>
+        <v>1.056255288405679</v>
       </c>
       <c r="J37" t="n">
-        <v>1.056255288405374</v>
+        <v>1.056255288405679</v>
       </c>
       <c r="K37" t="n">
-        <v>1.056255288405374</v>
+        <v>1.056255288405679</v>
       </c>
       <c r="L37" t="n">
-        <v>1.056255288405374</v>
+        <v>1.056255288405679</v>
       </c>
       <c r="M37" t="n">
-        <v>1.056255288405374</v>
+        <v>1.056255288405679</v>
       </c>
       <c r="N37" t="n">
-        <v>1.056255288405374</v>
+        <v>1.056255288405679</v>
       </c>
       <c r="O37" t="n">
-        <v>1.056255288405374</v>
+        <v>1.056255288405679</v>
       </c>
       <c r="P37" t="n">
-        <v>1.056255288405374</v>
+        <v>1.056255288405679</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.056255288405374</v>
+        <v>1.056255288405679</v>
       </c>
       <c r="R37" t="n">
-        <v>1.056255288405374</v>
+        <v>1.056255288405679</v>
       </c>
       <c r="S37" t="n">
-        <v>1.056255288405374</v>
+        <v>1.056255288405679</v>
       </c>
       <c r="T37" t="n">
-        <v>1.056255288405374</v>
+        <v>1.056255288405679</v>
       </c>
       <c r="U37" t="n">
-        <v>1.056255288405374</v>
+        <v>1.056255288405679</v>
       </c>
       <c r="V37" t="n">
-        <v>1.056255288405374</v>
+        <v>1.056255288405679</v>
       </c>
       <c r="W37" t="n">
-        <v>1.056255288405374</v>
+        <v>1.056255288405679</v>
       </c>
       <c r="X37" t="n">
-        <v>1.056255288405374</v>
+        <v>1.056255288405679</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.056255288405374</v>
+        <v>1.056255288405679</v>
       </c>
     </row>
     <row r="38">
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="41">
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681593</v>
       </c>
       <c r="H11" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844662</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953984</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003804</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623185</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574984</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095013</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099062</v>
+        <v>738.151212309905</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746406</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781684</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563566</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806939</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.17787942451118</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345273</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502563</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798528</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752247</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026435</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353153</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138798</v>
+        <v>508.956561913879</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233467</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837917</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970243</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002922</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987483</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905539</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238311</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898487</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462213</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430535</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311877</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742012</v>
       </c>
       <c r="J13" t="n">
-        <v>138.9375967297391</v>
+        <v>138.9375967297388</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702021</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098821</v>
+        <v>292.1673469098816</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316428</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883111</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023085998</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802166</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.5562817895878</v>
       </c>
       <c r="R13" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712204</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553032</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112285</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780293</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681588</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844658</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974796</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953981</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003798</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623179</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574979</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095008</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099044</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.99498197464</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.099994678168</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563563</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806931</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451116</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.350480948934527</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502561</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798527</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752241</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026433</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353149</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138785</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233463</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837912</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970239</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002918</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987481</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905538</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238307</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898478</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462212</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430534</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311876</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742007</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297387</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702019</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098814</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316426</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883109</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085995</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802164</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895877</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712197</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553029</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112278</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780292</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I17" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,43 +32385,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I23" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T23" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,43 +32859,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J25" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -33497,7 +33497,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
         <v>44.86703772844668</v>
@@ -33892,40 +33892,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34044,43 +34044,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34460,7 +34460,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P45" t="n">
         <v>447.6103584002926</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35018,7 +35018,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35027,10 +35027,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35258,10 +35258,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407865</v>
+        <v>359.8836161407859</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554007</v>
+        <v>661.3366991265646</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923313</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230595</v>
+        <v>538.9211158302257</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248959</v>
+        <v>581.9206576708389</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882195</v>
+        <v>888.8531821509636</v>
       </c>
       <c r="P11" t="n">
-        <v>502.5482327048849</v>
+        <v>720.5606943908538</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636244</v>
+        <v>463.1092954636236</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222444</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597682</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609563</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340048</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013284</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004584</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525799</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859619</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127268</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306605</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443193</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701978</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934834</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675397</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226394</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451101</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789346</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687118</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>661.336699126564</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923307</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302252</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>989.648759824894</v>
       </c>
       <c r="O14" t="n">
-        <v>766.6741794499121</v>
+        <v>888.853182150963</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>481.9292074088747</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636232</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222421</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597665</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609559</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340044</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013279</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.306104600458</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525794</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859615</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127265</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306594</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443191</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701975</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934832</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675395</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226392</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451099</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789332</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407865</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230595</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O17" t="n">
-        <v>727.3874636142355</v>
+        <v>888.8531821509648</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>624.8113957271053</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636244</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>959.2045126706989</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7042053200619</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230595</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>940.7329133109996</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636244</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,25 +36592,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>485.2089366502526</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>445.0681741211602</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636242</v>
@@ -36832,7 +36832,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
@@ -36844,7 +36844,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>208.2378022852229</v>
       </c>
       <c r="K32" t="n">
         <v>661.3366991265652</v>
@@ -37078,13 +37078,13 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636242</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37303,22 +37303,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>624.4350414194028</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37327,7 +37327,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.63467190147159</v>
+        <v>46.6346719014719</v>
       </c>
       <c r="K37" t="n">
-        <v>207.1039148327249</v>
+        <v>207.1039148327253</v>
       </c>
       <c r="L37" t="n">
-        <v>320.8136274586035</v>
+        <v>320.8136274586038</v>
       </c>
       <c r="M37" t="n">
-        <v>348.6896346818892</v>
+        <v>348.6896346818895</v>
       </c>
       <c r="N37" t="n">
-        <v>345.9132014559455</v>
+        <v>345.9132014559458</v>
       </c>
       <c r="O37" t="n">
-        <v>303.4093855110452</v>
+        <v>303.4093855110455</v>
       </c>
       <c r="P37" t="n">
-        <v>236.0133264335158</v>
+        <v>236.0133264335161</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.45049382629904</v>
+        <v>79.45049382629934</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554006</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230594</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248957</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>611.8392473737325</v>
+        <v>615.5570417029754</v>
       </c>
       <c r="P38" t="n">
-        <v>398.761986219372</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165881</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
         <v>366.7325087887907</v>
@@ -37713,13 +37713,13 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,16 +37780,16 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>588.5891319493445</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>771.0336122063246</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
         <v>888.8531821509645</v>
@@ -37798,7 +37798,7 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -38014,22 +38014,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>741.2912249487545</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>910.5868268050173</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193716</v>
@@ -38038,7 +38038,7 @@
         <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38108,7 +38108,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
@@ -38181,7 +38181,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N46" t="n">
         <v>391.8320827861326</v>
@@ -38190,7 +38190,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
